--- a/data/pca/factorExposure/factorExposure_2017-08-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-08-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02434634578784211</v>
+        <v>0.006281292554502519</v>
       </c>
       <c r="C2">
-        <v>-0.008636813277484967</v>
+        <v>0.04186074516027209</v>
       </c>
       <c r="D2">
-        <v>-0.01594986021109085</v>
+        <v>0.02973595122690077</v>
       </c>
       <c r="E2">
-        <v>0.008919089349058735</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03272024046566432</v>
+      </c>
+      <c r="F2">
+        <v>-0.02141308674635591</v>
+      </c>
+      <c r="G2">
+        <v>-0.04425580133646986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01508245543237939</v>
+        <v>0.05519851357849736</v>
       </c>
       <c r="C3">
-        <v>-0.05719165359022935</v>
+        <v>0.07082478880309882</v>
       </c>
       <c r="D3">
-        <v>-0.007394349639400836</v>
+        <v>0.01482183369515715</v>
       </c>
       <c r="E3">
-        <v>0.003792105961062752</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.09948713034059575</v>
+      </c>
+      <c r="F3">
+        <v>-0.05339997314533428</v>
+      </c>
+      <c r="G3">
+        <v>-0.1028968753232355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02305243566629002</v>
+        <v>0.05494564570175827</v>
       </c>
       <c r="C4">
-        <v>-0.02485350972484331</v>
+        <v>0.06350237996143207</v>
       </c>
       <c r="D4">
-        <v>-0.06033671797473124</v>
+        <v>0.02335123330420453</v>
       </c>
       <c r="E4">
-        <v>-0.01741377877442736</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01752940747523006</v>
+      </c>
+      <c r="F4">
+        <v>-0.006564714936591489</v>
+      </c>
+      <c r="G4">
+        <v>-0.05891575615792852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01559286194324228</v>
+        <v>0.03678625379167898</v>
       </c>
       <c r="C6">
-        <v>-0.02351170368231629</v>
+        <v>0.04939981871646183</v>
       </c>
       <c r="D6">
-        <v>-0.07811914253888637</v>
+        <v>0.01545960293706065</v>
       </c>
       <c r="E6">
-        <v>-0.009104070626516764</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01583279686229823</v>
+      </c>
+      <c r="F6">
+        <v>-0.01333283788507185</v>
+      </c>
+      <c r="G6">
+        <v>-0.03524333788521663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01041935337572137</v>
+        <v>0.01630733631730555</v>
       </c>
       <c r="C7">
-        <v>-0.005938280620281745</v>
+        <v>0.03621486430127825</v>
       </c>
       <c r="D7">
-        <v>-0.02915773681574908</v>
+        <v>0.01334194161789917</v>
       </c>
       <c r="E7">
-        <v>-0.07278924634344665</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.008348704309514617</v>
+      </c>
+      <c r="F7">
+        <v>-0.003679279306034502</v>
+      </c>
+      <c r="G7">
+        <v>-0.09693187978652094</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>6.203186698395067e-05</v>
+        <v>-0.001867452998687585</v>
       </c>
       <c r="C8">
-        <v>-0.0004902656303002654</v>
+        <v>0.01898966029134277</v>
       </c>
       <c r="D8">
-        <v>-0.005891001687119775</v>
+        <v>0.003899170226586743</v>
       </c>
       <c r="E8">
-        <v>-0.00951130498445416</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02245106514617826</v>
+      </c>
+      <c r="F8">
+        <v>-0.02302601712260072</v>
+      </c>
+      <c r="G8">
+        <v>-0.03234845257626372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01589149498938659</v>
+        <v>0.03192593647931284</v>
       </c>
       <c r="C9">
-        <v>-0.0247831775197103</v>
+        <v>0.04404694821657629</v>
       </c>
       <c r="D9">
-        <v>-0.04582834038202872</v>
+        <v>0.01604657734687903</v>
       </c>
       <c r="E9">
-        <v>-0.00789914309277601</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.0125076603143358</v>
+      </c>
+      <c r="F9">
+        <v>-0.01165102402937056</v>
+      </c>
+      <c r="G9">
+        <v>-0.05531323523916298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.01534433564168518</v>
+        <v>0.09375128149793173</v>
       </c>
       <c r="C10">
-        <v>-0.1569957344979371</v>
+        <v>-0.183656978401543</v>
       </c>
       <c r="D10">
-        <v>0.1250285587666483</v>
+        <v>-0.01756446631063724</v>
       </c>
       <c r="E10">
-        <v>-0.009870949632221791</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.009558942042752141</v>
+      </c>
+      <c r="F10">
+        <v>0.01973808066960126</v>
+      </c>
+      <c r="G10">
+        <v>-0.04874893656288064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0005721000828112138</v>
+        <v>0.031179954879673</v>
       </c>
       <c r="C11">
-        <v>-0.009722919288252569</v>
+        <v>0.05382263367722068</v>
       </c>
       <c r="D11">
-        <v>-0.04161189774501121</v>
+        <v>0.002331841231282295</v>
       </c>
       <c r="E11">
-        <v>0.006286799382719389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.006765330449615311</v>
+      </c>
+      <c r="F11">
+        <v>-0.02259170210780831</v>
+      </c>
+      <c r="G11">
+        <v>-0.03595905061890371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.006024845503517092</v>
+        <v>0.03115211383548163</v>
       </c>
       <c r="C12">
-        <v>-0.01743395724693674</v>
+        <v>0.04654538171009336</v>
       </c>
       <c r="D12">
-        <v>-0.04364615176850238</v>
+        <v>0.006311805078709258</v>
       </c>
       <c r="E12">
-        <v>-0.002120803526040966</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.00115276551096557</v>
+      </c>
+      <c r="F12">
+        <v>-0.006952133377036796</v>
+      </c>
+      <c r="G12">
+        <v>-0.03650601600104596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02213019551430397</v>
+        <v>0.01373944313223258</v>
       </c>
       <c r="C13">
-        <v>-0.01775673204353085</v>
+        <v>0.03132053461134957</v>
       </c>
       <c r="D13">
-        <v>-0.01000629661927096</v>
+        <v>0.02499913480244409</v>
       </c>
       <c r="E13">
-        <v>0.008139442373044977</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02248122026461799</v>
+      </c>
+      <c r="F13">
+        <v>-0.01178419213130046</v>
+      </c>
+      <c r="G13">
+        <v>-0.05289934853866472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007433070614394466</v>
+        <v>0.008027660775569776</v>
       </c>
       <c r="C14">
-        <v>-0.01451680869302685</v>
+        <v>0.02564801905739821</v>
       </c>
       <c r="D14">
-        <v>-0.01312186758218205</v>
+        <v>0.008641248990921124</v>
       </c>
       <c r="E14">
-        <v>-0.01308018196437846</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.005257886825755767</v>
+      </c>
+      <c r="F14">
+        <v>0.003763317213174615</v>
+      </c>
+      <c r="G14">
+        <v>-0.05446998054378539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001302234313155921</v>
+        <v>0.03127365281717712</v>
       </c>
       <c r="C16">
-        <v>-0.01757972229950785</v>
+        <v>0.04452819059702353</v>
       </c>
       <c r="D16">
-        <v>-0.04471896979914175</v>
+        <v>0.001716373684536345</v>
       </c>
       <c r="E16">
-        <v>5.475838375430379e-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.006304091519263778</v>
+      </c>
+      <c r="F16">
+        <v>-0.009131937862058041</v>
+      </c>
+      <c r="G16">
+        <v>-0.03567782611303861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01382708863514364</v>
+        <v>0.02293238334386903</v>
       </c>
       <c r="C19">
-        <v>-0.02861395311752522</v>
+        <v>0.04948391921527818</v>
       </c>
       <c r="D19">
-        <v>-0.01856520553494999</v>
+        <v>0.01642193989751723</v>
       </c>
       <c r="E19">
-        <v>-0.00340083774740321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.05440097107541053</v>
+      </c>
+      <c r="F19">
+        <v>-0.02591965695603174</v>
+      </c>
+      <c r="G19">
+        <v>-0.0627781632700945</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01075381065962908</v>
+        <v>0.01174553412968004</v>
       </c>
       <c r="C20">
-        <v>-0.01063338252360606</v>
+        <v>0.03292810219047181</v>
       </c>
       <c r="D20">
-        <v>-0.009295563276013045</v>
+        <v>0.01317087275533197</v>
       </c>
       <c r="E20">
-        <v>-0.00024001011446782</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02377233156571834</v>
+      </c>
+      <c r="F20">
+        <v>0.002581194880137832</v>
+      </c>
+      <c r="G20">
+        <v>-0.05297937584565949</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01490955406353043</v>
+        <v>0.01376891551062744</v>
       </c>
       <c r="C21">
-        <v>-0.03328573086074396</v>
+        <v>0.03406438194416906</v>
       </c>
       <c r="D21">
-        <v>-0.0164179315080778</v>
+        <v>0.01652100269331739</v>
       </c>
       <c r="E21">
-        <v>-0.01743977903634257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03116805687855425</v>
+      </c>
+      <c r="F21">
+        <v>-0.002787964823067366</v>
+      </c>
+      <c r="G21">
+        <v>-0.0754217255197585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004703267595608359</v>
+        <v>0.02445482345169404</v>
       </c>
       <c r="C24">
-        <v>-0.005650399409764856</v>
+        <v>0.04810643107970117</v>
       </c>
       <c r="D24">
-        <v>-0.0411604359799656</v>
+        <v>0.007259032461786304</v>
       </c>
       <c r="E24">
-        <v>-0.0007228084536230787</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.002853529493756947</v>
+      </c>
+      <c r="F24">
+        <v>-0.02074719446636852</v>
+      </c>
+      <c r="G24">
+        <v>-0.03995184869993983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01205802918956635</v>
+        <v>0.03920841207861771</v>
       </c>
       <c r="C25">
-        <v>-0.02560928932960876</v>
+        <v>0.0553876306002246</v>
       </c>
       <c r="D25">
-        <v>-0.04117135708503539</v>
+        <v>0.01134567829661682</v>
       </c>
       <c r="E25">
-        <v>0.0006299841218437641</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.004610009399863967</v>
+      </c>
+      <c r="F25">
+        <v>-0.01416177120395634</v>
+      </c>
+      <c r="G25">
+        <v>-0.0447040372391552</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02288361445571124</v>
+        <v>0.01227553859118542</v>
       </c>
       <c r="C26">
-        <v>-0.01143586046746877</v>
+        <v>0.007879759278513681</v>
       </c>
       <c r="D26">
-        <v>0.006606917108599668</v>
+        <v>0.02340024534181634</v>
       </c>
       <c r="E26">
-        <v>-0.008920398473979491</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.003319882181504565</v>
+      </c>
+      <c r="F26">
+        <v>0.004479373591323026</v>
+      </c>
+      <c r="G26">
+        <v>-0.04190353960473884</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.03604470160291952</v>
+        <v>0.1215555762585762</v>
       </c>
       <c r="C28">
-        <v>-0.2296652022901006</v>
+        <v>-0.2306864419658316</v>
       </c>
       <c r="D28">
-        <v>0.1822021771998248</v>
+        <v>-0.008720123189414956</v>
       </c>
       <c r="E28">
-        <v>-0.01907778678602907</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.002575564333826574</v>
+      </c>
+      <c r="F28">
+        <v>0.01969789833435047</v>
+      </c>
+      <c r="G28">
+        <v>-0.06601791531200668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007860989504461055</v>
+        <v>0.01062564662885195</v>
       </c>
       <c r="C29">
-        <v>-0.02035234622563073</v>
+        <v>0.01920194447496346</v>
       </c>
       <c r="D29">
-        <v>-0.009293196789238633</v>
+        <v>0.007436501257536553</v>
       </c>
       <c r="E29">
-        <v>-0.008390687629180797</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.007834176185092676</v>
+      </c>
+      <c r="F29">
+        <v>0.0126277545753984</v>
+      </c>
+      <c r="G29">
+        <v>-0.04474494311995454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02346567471515523</v>
+        <v>0.04465839485747127</v>
       </c>
       <c r="C30">
-        <v>-0.007921034841317962</v>
+        <v>0.06376648650556425</v>
       </c>
       <c r="D30">
-        <v>-0.06398047851676339</v>
+        <v>0.02756431246189515</v>
       </c>
       <c r="E30">
-        <v>0.05432730872860602</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04337239602113587</v>
+      </c>
+      <c r="F30">
+        <v>-0.05371498270227714</v>
+      </c>
+      <c r="G30">
+        <v>-0.02910500001823698</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.00863267097199224</v>
+        <v>0.04948253338154995</v>
       </c>
       <c r="C31">
-        <v>-0.04537619220059544</v>
+        <v>0.03353139050558992</v>
       </c>
       <c r="D31">
-        <v>-0.04144451621424024</v>
+        <v>0.003537500094473923</v>
       </c>
       <c r="E31">
-        <v>-0.01156707946543821</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.00602052488451436</v>
+      </c>
+      <c r="F31">
+        <v>0.03634852601713828</v>
+      </c>
+      <c r="G31">
+        <v>-0.04508530402374286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.00628478398238177</v>
+        <v>-0.002866090654040756</v>
       </c>
       <c r="C32">
-        <v>-0.02366187462264942</v>
+        <v>0.02980439818915603</v>
       </c>
       <c r="D32">
-        <v>0.003988047114157876</v>
+        <v>-0.00405433346015864</v>
       </c>
       <c r="E32">
-        <v>-0.03065250176259162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01414058196766468</v>
+      </c>
+      <c r="F32">
+        <v>-0.0487332571658599</v>
+      </c>
+      <c r="G32">
+        <v>-0.06565801529654026</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01325224218573316</v>
+        <v>0.0259690037491392</v>
       </c>
       <c r="C33">
-        <v>-0.02818663436820314</v>
+        <v>0.04645049340168785</v>
       </c>
       <c r="D33">
-        <v>-0.02048219995314576</v>
+        <v>0.01455928191478088</v>
       </c>
       <c r="E33">
-        <v>0.02196180818389252</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02650046339008144</v>
+      </c>
+      <c r="F33">
+        <v>-0.02409942762807627</v>
+      </c>
+      <c r="G33">
+        <v>-0.0574406859568517</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.004367320843145873</v>
+        <v>0.03880469531682962</v>
       </c>
       <c r="C34">
-        <v>-0.02148863843452373</v>
+        <v>0.05805274890357242</v>
       </c>
       <c r="D34">
-        <v>-0.04559065352287121</v>
+        <v>-0.004508848187660461</v>
       </c>
       <c r="E34">
-        <v>-0.008774037960612791</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.004417914151738282</v>
+      </c>
+      <c r="F34">
+        <v>-0.02508854486601739</v>
+      </c>
+      <c r="G34">
+        <v>-0.04910240828921953</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01275050256852427</v>
+        <v>0.01195040587499648</v>
       </c>
       <c r="C36">
-        <v>-0.02349132306616745</v>
+        <v>0.007300114750446729</v>
       </c>
       <c r="D36">
-        <v>-0.001739369755207417</v>
+        <v>0.01152106408738785</v>
       </c>
       <c r="E36">
-        <v>-0.003314405956543053</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.0004824362745630361</v>
+      </c>
+      <c r="F36">
+        <v>0.007147323736855662</v>
+      </c>
+      <c r="G36">
+        <v>-0.03723685724879541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.004023472408809707</v>
+        <v>0.03037395138097369</v>
       </c>
       <c r="C38">
-        <v>-0.03929161355773696</v>
+        <v>0.02835249787143984</v>
       </c>
       <c r="D38">
-        <v>-0.02685126915847589</v>
+        <v>-0.007362355645589028</v>
       </c>
       <c r="E38">
-        <v>-0.001973991055233468</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.004872827768579923</v>
+      </c>
+      <c r="F38">
+        <v>0.009247286336306832</v>
+      </c>
+      <c r="G38">
+        <v>-0.04418111212210224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.005785213894624766</v>
+        <v>0.03060105283207207</v>
       </c>
       <c r="C39">
-        <v>0.01216899360575463</v>
+        <v>0.08138520574675372</v>
       </c>
       <c r="D39">
-        <v>-0.09116517657808776</v>
+        <v>0.012189348456847</v>
       </c>
       <c r="E39">
-        <v>0.004285376872762944</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02102133279273992</v>
+      </c>
+      <c r="F39">
+        <v>-0.03573328662967093</v>
+      </c>
+      <c r="G39">
+        <v>-0.04184795337682275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01216438717779829</v>
+        <v>0.01886525571337683</v>
       </c>
       <c r="C40">
-        <v>-0.02712251023498699</v>
+        <v>0.03226470581667418</v>
       </c>
       <c r="D40">
-        <v>-0.02819751071135511</v>
+        <v>0.01337336558879908</v>
       </c>
       <c r="E40">
-        <v>0.001973429663831328</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01977030974973565</v>
+      </c>
+      <c r="F40">
+        <v>-0.01748925666860644</v>
+      </c>
+      <c r="G40">
+        <v>-0.03998634790757865</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.005827437381569299</v>
+        <v>0.01122306754628956</v>
       </c>
       <c r="C41">
-        <v>-0.02268149682006985</v>
+        <v>0.001713673619808047</v>
       </c>
       <c r="D41">
-        <v>0.008842439725836346</v>
+        <v>0.004165592983187076</v>
       </c>
       <c r="E41">
-        <v>-0.002354783642420058</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.0006441471393939931</v>
+      </c>
+      <c r="F41">
+        <v>0.0003073945476727128</v>
+      </c>
+      <c r="G41">
+        <v>-0.02631643613451233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09319706630840939</v>
+        <v>0.01424880259818534</v>
       </c>
       <c r="C42">
-        <v>-0.00280811873173664</v>
+        <v>0.04203653600897819</v>
       </c>
       <c r="D42">
-        <v>-0.2774086598899079</v>
+        <v>0.09444909728641877</v>
       </c>
       <c r="E42">
-        <v>0.2627635418877233</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.0361407504312536</v>
+      </c>
+      <c r="F42">
+        <v>0.04142418834899622</v>
+      </c>
+      <c r="G42">
+        <v>0.1537640753329041</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.007122443720138325</v>
+        <v>0.02916050857131365</v>
       </c>
       <c r="C43">
-        <v>-0.02582505451837358</v>
+        <v>0.01328690716227846</v>
       </c>
       <c r="D43">
-        <v>0.01340268302275226</v>
+        <v>0.004904071608255994</v>
       </c>
       <c r="E43">
-        <v>0.004236886818805505</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.009007092854421604</v>
+      </c>
+      <c r="F43">
+        <v>0.00199773500938458</v>
+      </c>
+      <c r="G43">
+        <v>-0.03764743549773062</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003652763246539418</v>
+        <v>0.01569010669128772</v>
       </c>
       <c r="C44">
-        <v>-0.0110747094627794</v>
+        <v>0.04776398924860738</v>
       </c>
       <c r="D44">
-        <v>-0.0264169393810303</v>
+        <v>0.006229370809470455</v>
       </c>
       <c r="E44">
-        <v>-0.003565025941798588</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01670306872173436</v>
+      </c>
+      <c r="F44">
+        <v>-0.002436158563512051</v>
+      </c>
+      <c r="G44">
+        <v>-0.05782448051518198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01103101902355097</v>
+        <v>0.005789923127363709</v>
       </c>
       <c r="C46">
-        <v>-0.01992325243890376</v>
+        <v>0.01678764892844848</v>
       </c>
       <c r="D46">
-        <v>-0.009903132468656622</v>
+        <v>0.01149309115141297</v>
       </c>
       <c r="E46">
-        <v>-0.002028199624143543</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.006003598212483549</v>
+      </c>
+      <c r="F46">
+        <v>0.01898159470150733</v>
+      </c>
+      <c r="G46">
+        <v>-0.04209926006347599</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.002834729641121135</v>
+        <v>0.07561442944821074</v>
       </c>
       <c r="C47">
-        <v>-0.05961175523219656</v>
+        <v>0.0668792336770837</v>
       </c>
       <c r="D47">
-        <v>-0.05523934386957361</v>
+        <v>-0.004731250071540599</v>
       </c>
       <c r="E47">
-        <v>-0.0001174142690483942</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.009113749413595291</v>
+      </c>
+      <c r="F47">
+        <v>0.05265025128029529</v>
+      </c>
+      <c r="G47">
+        <v>-0.04060467101793723</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.003502028528236961</v>
+        <v>0.0202262671970335</v>
       </c>
       <c r="C48">
-        <v>-0.02981902260909913</v>
+        <v>0.009337176504194087</v>
       </c>
       <c r="D48">
-        <v>-0.008666139259607439</v>
+        <v>0.0008896690752238908</v>
       </c>
       <c r="E48">
-        <v>-0.004169189475601081</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.003966598528695949</v>
+      </c>
+      <c r="F48">
+        <v>0.01630010147601947</v>
+      </c>
+      <c r="G48">
+        <v>-0.0438001673492821</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.004119511620134417</v>
+        <v>0.07837475852118556</v>
       </c>
       <c r="C50">
-        <v>-0.05333821736852762</v>
+        <v>0.06831270589208786</v>
       </c>
       <c r="D50">
-        <v>-0.06261197063928231</v>
+        <v>-0.003101115428906692</v>
       </c>
       <c r="E50">
-        <v>-0.02775715516925379</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01291221530411743</v>
+      </c>
+      <c r="F50">
+        <v>0.05559941629936625</v>
+      </c>
+      <c r="G50">
+        <v>-0.06441576089101624</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007211610468695786</v>
+        <v>0.01209194054202122</v>
       </c>
       <c r="C51">
-        <v>-0.0204160667850067</v>
+        <v>0.03019376381043583</v>
       </c>
       <c r="D51">
-        <v>0.003933184101134203</v>
+        <v>0.009081868006188442</v>
       </c>
       <c r="E51">
-        <v>-0.003192390166646941</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.009573859702805823</v>
+      </c>
+      <c r="F51">
+        <v>-0.01851261520925719</v>
+      </c>
+      <c r="G51">
+        <v>-0.06465289115833354</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.005960372592526558</v>
+        <v>0.08321653625755063</v>
       </c>
       <c r="C53">
-        <v>-0.07514602300036623</v>
+        <v>0.08105168398226588</v>
       </c>
       <c r="D53">
-        <v>-0.1134456680762974</v>
+        <v>-0.004168477537255229</v>
       </c>
       <c r="E53">
-        <v>-0.01075443420667626</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03294079715700453</v>
+      </c>
+      <c r="F53">
+        <v>0.05757884875256322</v>
+      </c>
+      <c r="G53">
+        <v>-0.04099207616962215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0002468542344562452</v>
+        <v>0.03162012604797783</v>
       </c>
       <c r="C54">
-        <v>-0.03695376272859595</v>
+        <v>0.01239035195540734</v>
       </c>
       <c r="D54">
-        <v>0.009508699069419412</v>
+        <v>-0.002904048407100142</v>
       </c>
       <c r="E54">
-        <v>-0.009601495472910336</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.001119780848362688</v>
+      </c>
+      <c r="F54">
+        <v>0.006082646112695093</v>
+      </c>
+      <c r="G54">
+        <v>-0.04668873689256366</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.003034313086775489</v>
+        <v>0.07107338237191076</v>
       </c>
       <c r="C55">
-        <v>-0.05552096276529492</v>
+        <v>0.07240810105466028</v>
       </c>
       <c r="D55">
-        <v>-0.09840330149845991</v>
+        <v>-0.004655982881952876</v>
       </c>
       <c r="E55">
-        <v>0.002243200278552622</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02461881168699906</v>
+      </c>
+      <c r="F55">
+        <v>0.05577712897498584</v>
+      </c>
+      <c r="G55">
+        <v>-0.02325719742189841</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.004287019013077717</v>
+        <v>0.1418126655655257</v>
       </c>
       <c r="C56">
-        <v>-0.1035851291436018</v>
+        <v>0.1072742780063975</v>
       </c>
       <c r="D56">
-        <v>-0.1451836560116211</v>
+        <v>-0.01250291166362436</v>
       </c>
       <c r="E56">
-        <v>-0.0005701148739139835</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03701815947042575</v>
+      </c>
+      <c r="F56">
+        <v>0.07975267829999891</v>
+      </c>
+      <c r="G56">
+        <v>-0.01007243789199447</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02402705135475615</v>
+        <v>0.009372099341853629</v>
       </c>
       <c r="C57">
-        <v>-0.02388558845960558</v>
+        <v>0.00974156628588241</v>
       </c>
       <c r="D57">
-        <v>-0.04070312503081614</v>
+        <v>0.02353702693962258</v>
       </c>
       <c r="E57">
-        <v>0.001706887306713432</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02621356173068661</v>
+      </c>
+      <c r="F57">
+        <v>-0.01303495427567729</v>
+      </c>
+      <c r="G57">
+        <v>-0.02512447698244145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01258360997113767</v>
+        <v>0.08207987379611184</v>
       </c>
       <c r="C58">
-        <v>-0.1054126726822018</v>
+        <v>0.03360224030504817</v>
       </c>
       <c r="D58">
-        <v>-0.08724010676400552</v>
+        <v>0.01568813292617488</v>
       </c>
       <c r="E58">
-        <v>0.2060434880003066</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9468423601106032</v>
+      </c>
+      <c r="F58">
+        <v>0.2147600432124066</v>
+      </c>
+      <c r="G58">
+        <v>0.02079918701452869</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.03219306227541248</v>
+        <v>0.1623378183315102</v>
       </c>
       <c r="C59">
-        <v>-0.2411469712097637</v>
+        <v>-0.2099996474690103</v>
       </c>
       <c r="D59">
-        <v>0.18249362800361</v>
+        <v>-0.0158756416863952</v>
       </c>
       <c r="E59">
-        <v>0.005298642389180367</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.002232610318393253</v>
+      </c>
+      <c r="F59">
+        <v>0.001744826546019802</v>
+      </c>
+      <c r="G59">
+        <v>-0.02201661887831995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.03636537725834164</v>
+        <v>0.2841352220497989</v>
       </c>
       <c r="C60">
-        <v>-0.164561621032418</v>
+        <v>0.1026127838867796</v>
       </c>
       <c r="D60">
-        <v>-0.06613359588489175</v>
+        <v>0.01144073446326129</v>
       </c>
       <c r="E60">
-        <v>0.03947401497646225</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.00656074124620887</v>
+      </c>
+      <c r="F60">
+        <v>-0.3545901701075262</v>
+      </c>
+      <c r="G60">
+        <v>0.1011667383796588</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003793252188763921</v>
+        <v>0.0338830245932434</v>
       </c>
       <c r="C61">
-        <v>-0.01482023028631932</v>
+        <v>0.06512501783921318</v>
       </c>
       <c r="D61">
-        <v>-0.06139246371539284</v>
+        <v>0.00549428676592138</v>
       </c>
       <c r="E61">
-        <v>0.00101028309157283</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01030283676939591</v>
+      </c>
+      <c r="F61">
+        <v>-0.01999180690759038</v>
+      </c>
+      <c r="G61">
+        <v>-0.03796253107263835</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007644641298340278</v>
+        <v>0.01299923687819459</v>
       </c>
       <c r="C63">
-        <v>-0.01109675708774384</v>
+        <v>0.02779470704442279</v>
       </c>
       <c r="D63">
-        <v>-0.006844795353838347</v>
+        <v>0.008052200668799343</v>
       </c>
       <c r="E63">
-        <v>-0.00930945410494278</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.00413843799328387</v>
+      </c>
+      <c r="F63">
+        <v>0.01650038013168697</v>
+      </c>
+      <c r="G63">
+        <v>-0.04755217332978594</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.008222211327934608</v>
+        <v>0.05096200757400789</v>
       </c>
       <c r="C64">
-        <v>-0.03679337918788222</v>
+        <v>0.04363511375452267</v>
       </c>
       <c r="D64">
-        <v>-0.06399106592967563</v>
+        <v>0.005580387557983128</v>
       </c>
       <c r="E64">
-        <v>0.00940987598548939</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.006634377361910916</v>
+      </c>
+      <c r="F64">
+        <v>-0.004452177984081568</v>
+      </c>
+      <c r="G64">
+        <v>-0.03384913974813147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01805663280830595</v>
+        <v>0.08400082189325651</v>
       </c>
       <c r="C65">
-        <v>-0.02937669143628776</v>
+        <v>0.05971063804246157</v>
       </c>
       <c r="D65">
-        <v>-0.08804292965047152</v>
+        <v>0.01484536369513158</v>
       </c>
       <c r="E65">
-        <v>-0.007971952044700666</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.0170178289877809</v>
+      </c>
+      <c r="F65">
+        <v>-0.03582279576523316</v>
+      </c>
+      <c r="G65">
+        <v>-0.01594673808297491</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005598315477181936</v>
+        <v>0.04918463477186289</v>
       </c>
       <c r="C66">
-        <v>0.002588707869903094</v>
+        <v>0.1130857146293592</v>
       </c>
       <c r="D66">
-        <v>-0.1174283000849373</v>
+        <v>0.01206717583603386</v>
       </c>
       <c r="E66">
-        <v>0.01657523452267238</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02721055391297581</v>
+      </c>
+      <c r="F66">
+        <v>-0.04468024182589459</v>
+      </c>
+      <c r="G66">
+        <v>-0.03810931749944737</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001796277059900206</v>
+        <v>0.05243770317688386</v>
       </c>
       <c r="C67">
-        <v>-0.05957345167179617</v>
+        <v>0.03265022519525895</v>
       </c>
       <c r="D67">
-        <v>-0.03149781237615615</v>
+        <v>-0.005434023668300234</v>
       </c>
       <c r="E67">
-        <v>0.0006753742631598287</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.001437571246821798</v>
+      </c>
+      <c r="F67">
+        <v>0.01183429707585501</v>
+      </c>
+      <c r="G67">
+        <v>-0.04026507849643516</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.0498500859676288</v>
+        <v>0.1448259552922393</v>
       </c>
       <c r="C68">
-        <v>-0.2157235759763089</v>
+        <v>-0.2691434884722098</v>
       </c>
       <c r="D68">
-        <v>0.1697456483744455</v>
+        <v>0.002430461726753633</v>
       </c>
       <c r="E68">
-        <v>0.01032550830680038</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.003474967158591843</v>
+      </c>
+      <c r="F68">
+        <v>0.0408808293471545</v>
+      </c>
+      <c r="G68">
+        <v>-0.02229343585823597</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.001636439913527582</v>
+        <v>0.07573179803954275</v>
       </c>
       <c r="C69">
-        <v>-0.05062952644693771</v>
+        <v>0.06883981658156366</v>
       </c>
       <c r="D69">
-        <v>-0.06030268042151793</v>
+        <v>-0.008465205817981374</v>
       </c>
       <c r="E69">
-        <v>-0.002322051005602966</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.026350546344409</v>
+      </c>
+      <c r="F69">
+        <v>0.03880202178378813</v>
+      </c>
+      <c r="G69">
+        <v>-0.04572303628279385</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.03596029514627944</v>
+        <v>0.1380679592274723</v>
       </c>
       <c r="C71">
-        <v>-0.1897008570650164</v>
+        <v>-0.2324569931714596</v>
       </c>
       <c r="D71">
-        <v>0.153421355831789</v>
+        <v>-0.006392243386815372</v>
       </c>
       <c r="E71">
-        <v>-0.003653476252491043</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02189703016077063</v>
+      </c>
+      <c r="F71">
+        <v>0.01011210883217505</v>
+      </c>
+      <c r="G71">
+        <v>-0.03818358866806155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.000552635205561222</v>
+        <v>0.08340213426002437</v>
       </c>
       <c r="C72">
-        <v>-0.05870698085283106</v>
+        <v>0.07387273818026022</v>
       </c>
       <c r="D72">
-        <v>-0.1293269341607595</v>
+        <v>-0.00815553982278445</v>
       </c>
       <c r="E72">
-        <v>0.01722714655143719</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.006104686723527546</v>
+      </c>
+      <c r="F72">
+        <v>-0.04176812429326039</v>
+      </c>
+      <c r="G72">
+        <v>-0.01576670479573804</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.05073202833573212</v>
+        <v>0.3956405642592822</v>
       </c>
       <c r="C73">
-        <v>-0.2006861771975418</v>
+        <v>0.1164507786767118</v>
       </c>
       <c r="D73">
-        <v>-0.1560713375818516</v>
+        <v>0.01734918687205506</v>
       </c>
       <c r="E73">
-        <v>0.09262587966955875</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.05237697623721511</v>
+      </c>
+      <c r="F73">
+        <v>-0.5595504258931371</v>
+      </c>
+      <c r="G73">
+        <v>0.1750213268729646</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.001950498386836453</v>
+        <v>0.110649445038462</v>
       </c>
       <c r="C74">
-        <v>-0.09444958884041992</v>
+        <v>0.1174779703356559</v>
       </c>
       <c r="D74">
-        <v>-0.1510689054547723</v>
+        <v>-0.009513082267130386</v>
       </c>
       <c r="E74">
-        <v>0.005282602183353443</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.015207866718763</v>
+      </c>
+      <c r="F74">
+        <v>0.0723624888284667</v>
+      </c>
+      <c r="G74">
+        <v>-0.04872629657962215</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.007716294322972289</v>
+        <v>0.2487583251476082</v>
       </c>
       <c r="C75">
-        <v>-0.2086013452961512</v>
+        <v>0.1584054783819129</v>
       </c>
       <c r="D75">
-        <v>-0.2734617962312756</v>
+        <v>-0.0292601789253008</v>
       </c>
       <c r="E75">
-        <v>0.01875397848838347</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05309171128983283</v>
+      </c>
+      <c r="F75">
+        <v>0.1858007843242382</v>
+      </c>
+      <c r="G75">
+        <v>0.0372155445292811</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.002034373798893408</v>
+        <v>0.1260425447316924</v>
       </c>
       <c r="C76">
-        <v>-0.1390218648807504</v>
+        <v>0.1181329326594933</v>
       </c>
       <c r="D76">
-        <v>-0.2213517332290701</v>
+        <v>-0.02029426522111216</v>
       </c>
       <c r="E76">
-        <v>-0.01472988419829701</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.04696548937831303</v>
+      </c>
+      <c r="F76">
+        <v>0.1175980040966498</v>
+      </c>
+      <c r="G76">
+        <v>-0.02813643193298863</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01231091077273594</v>
+        <v>0.0642962220022659</v>
       </c>
       <c r="C77">
-        <v>-0.02244150249552384</v>
+        <v>0.06116314124194235</v>
       </c>
       <c r="D77">
-        <v>-0.05050226651101708</v>
+        <v>0.01226750840234313</v>
       </c>
       <c r="E77">
-        <v>0.003613025981560015</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04930672272075509</v>
+      </c>
+      <c r="F77">
+        <v>-0.01489706752820895</v>
+      </c>
+      <c r="G77">
+        <v>-0.05157720843866481</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.00466833106635607</v>
+        <v>0.04121166068817652</v>
       </c>
       <c r="C78">
-        <v>-0.0205082894717748</v>
+        <v>0.05061655393969688</v>
       </c>
       <c r="D78">
-        <v>-0.06005760269970656</v>
+        <v>0.00542632225675658</v>
       </c>
       <c r="E78">
-        <v>-0.002657700488380694</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.01963564233777371</v>
+      </c>
+      <c r="F78">
+        <v>-0.04282840181732772</v>
+      </c>
+      <c r="G78">
+        <v>-0.04629051305578186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01697498835803616</v>
+        <v>0.05489665050460557</v>
       </c>
       <c r="C80">
-        <v>-0.1155179790485029</v>
+        <v>0.06251314834742691</v>
       </c>
       <c r="D80">
-        <v>-0.1401554921688078</v>
+        <v>0.01298849883496267</v>
       </c>
       <c r="E80">
-        <v>-0.9173138035030978</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03474906664344047</v>
+      </c>
+      <c r="F80">
+        <v>-0.03755060096982596</v>
+      </c>
+      <c r="G80">
+        <v>-0.8563186556835523</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.005723252812423424</v>
+        <v>0.1437038631410215</v>
       </c>
       <c r="C81">
-        <v>-0.1293466183812456</v>
+        <v>0.09354172250863461</v>
       </c>
       <c r="D81">
-        <v>-0.1599822445721177</v>
+        <v>-0.01482278298279244</v>
       </c>
       <c r="E81">
-        <v>0.000914102052204917</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03015667175288045</v>
+      </c>
+      <c r="F81">
+        <v>0.1228593471593702</v>
+      </c>
+      <c r="G81">
+        <v>-0.02165690265673145</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1016945710499554</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.05361840809670547</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.005059778903644297</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.07742740151332761</v>
+      </c>
+      <c r="F82">
+        <v>0.01806890070899602</v>
+      </c>
+      <c r="G82">
+        <v>-0.02023726769083195</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.007098338064037259</v>
+        <v>0.02757772538201903</v>
       </c>
       <c r="C83">
-        <v>-0.02607323504731319</v>
+        <v>0.02129685791721461</v>
       </c>
       <c r="D83">
-        <v>-0.02185444777015842</v>
+        <v>0.00534779423552369</v>
       </c>
       <c r="E83">
-        <v>0.002725902034553107</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.0240340155606059</v>
+      </c>
+      <c r="F83">
+        <v>-0.02382644030454285</v>
+      </c>
+      <c r="G83">
+        <v>-0.02971016180644436</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.01415848381985715</v>
+        <v>0.2213343615596858</v>
       </c>
       <c r="C85">
-        <v>-0.1604086667630589</v>
+        <v>0.1510131216193732</v>
       </c>
       <c r="D85">
-        <v>-0.2572754223989283</v>
+        <v>-0.01752502332953856</v>
       </c>
       <c r="E85">
-        <v>0.02286641381359839</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09353324978661712</v>
+      </c>
+      <c r="F85">
+        <v>0.1567462534571349</v>
+      </c>
+      <c r="G85">
+        <v>0.06395237609739617</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.007560337102695571</v>
+        <v>0.01078410742018557</v>
       </c>
       <c r="C86">
-        <v>-0.02944748635547894</v>
+        <v>0.01650373202122801</v>
       </c>
       <c r="D86">
-        <v>-0.006539663369559528</v>
+        <v>0.01005285818882615</v>
       </c>
       <c r="E86">
-        <v>0.02386552158923245</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.03314976197420243</v>
+      </c>
+      <c r="F86">
+        <v>-0.02997775344494919</v>
+      </c>
+      <c r="G86">
+        <v>-0.08023171337675301</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.00769143989489246</v>
+        <v>0.01978268262784572</v>
       </c>
       <c r="C87">
-        <v>-0.017677679839085</v>
+        <v>0.02352523228279924</v>
       </c>
       <c r="D87">
-        <v>-0.04015701326758658</v>
+        <v>0.01062228438570368</v>
       </c>
       <c r="E87">
-        <v>0.00358133786795096</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08191557133613074</v>
+      </c>
+      <c r="F87">
+        <v>-0.02627759656805613</v>
+      </c>
+      <c r="G87">
+        <v>-0.06127752803113024</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02669740362423212</v>
+        <v>0.08977958709968537</v>
       </c>
       <c r="C88">
-        <v>-0.03432146859909583</v>
+        <v>0.06555277106606797</v>
       </c>
       <c r="D88">
-        <v>-0.03729666639812408</v>
+        <v>0.02287913304749386</v>
       </c>
       <c r="E88">
-        <v>0.001567429980541902</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01350120771969739</v>
+      </c>
+      <c r="F88">
+        <v>0.01735936713738419</v>
+      </c>
+      <c r="G88">
+        <v>-0.03784386088297252</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.06892582423644811</v>
+        <v>0.2252015606276761</v>
       </c>
       <c r="C89">
-        <v>-0.3532999002949288</v>
+        <v>-0.3651398072028438</v>
       </c>
       <c r="D89">
-        <v>0.2663920514452759</v>
+        <v>-0.005132036992205272</v>
       </c>
       <c r="E89">
-        <v>0.02015689088374755</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02210977039497725</v>
+      </c>
+      <c r="F89">
+        <v>0.02935791614093365</v>
+      </c>
+      <c r="G89">
+        <v>-0.03348975011841719</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.05178190842281391</v>
+        <v>0.2017903544608554</v>
       </c>
       <c r="C90">
-        <v>-0.2659023341565568</v>
+        <v>-0.3277914268391635</v>
       </c>
       <c r="D90">
-        <v>0.2328521973376466</v>
+        <v>-0.009370432263199053</v>
       </c>
       <c r="E90">
-        <v>0.02016673595540468</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.02177121215048233</v>
+      </c>
+      <c r="F90">
+        <v>0.04603147717783944</v>
+      </c>
+      <c r="G90">
+        <v>-0.006970943779795596</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.004013130109052656</v>
+        <v>0.1972263378175561</v>
       </c>
       <c r="C91">
-        <v>-0.1782385849207203</v>
+        <v>0.1416181589851182</v>
       </c>
       <c r="D91">
-        <v>-0.230621899664496</v>
+        <v>-0.0231582147161094</v>
       </c>
       <c r="E91">
-        <v>0.004012657762130641</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06989406563361834</v>
+      </c>
+      <c r="F91">
+        <v>0.1599517578268178</v>
+      </c>
+      <c r="G91">
+        <v>-0.007753814472251954</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.01905790684362547</v>
+        <v>0.2071190998675979</v>
       </c>
       <c r="C92">
-        <v>-0.3053095462287431</v>
+        <v>-0.2621674597846764</v>
       </c>
       <c r="D92">
-        <v>0.1229901329046413</v>
+        <v>-0.04583617641284183</v>
       </c>
       <c r="E92">
-        <v>0.01078970534935515</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.003892957720737159</v>
+      </c>
+      <c r="F92">
+        <v>0.07799320467275257</v>
+      </c>
+      <c r="G92">
+        <v>-0.07542932522703559</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.04943336497486268</v>
+        <v>0.2309501622993848</v>
       </c>
       <c r="C93">
-        <v>-0.2952359923513232</v>
+        <v>-0.3196935140536357</v>
       </c>
       <c r="D93">
-        <v>0.229729275335955</v>
+        <v>-0.01636271857264209</v>
       </c>
       <c r="E93">
-        <v>0.04070027023013547</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.008191730124762934</v>
+      </c>
+      <c r="F93">
+        <v>0.03762423118445522</v>
+      </c>
+      <c r="G93">
+        <v>-0.00441698288684088</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.02630854766976624</v>
+        <v>0.2996168332507239</v>
       </c>
       <c r="C94">
-        <v>-0.2063237484767306</v>
+        <v>0.1920479248069737</v>
       </c>
       <c r="D94">
-        <v>-0.2399896238054222</v>
+        <v>-0.01335682366799498</v>
       </c>
       <c r="E94">
-        <v>0.05042681328446459</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1452340297723134</v>
+      </c>
+      <c r="F94">
+        <v>0.4897911016733808</v>
+      </c>
+      <c r="G94">
+        <v>0.1942450278166798</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.004501163601990318</v>
+        <v>0.08694522743196043</v>
       </c>
       <c r="C95">
-        <v>-0.0558468340975343</v>
+        <v>0.07427153255243285</v>
       </c>
       <c r="D95">
-        <v>-0.08821890546494215</v>
+        <v>-0.00857268474953098</v>
       </c>
       <c r="E95">
-        <v>0.1096308657447651</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06518170564818847</v>
+      </c>
+      <c r="F95">
+        <v>-0.1590285348582417</v>
+      </c>
+      <c r="G95">
+        <v>0.05618445612731747</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.01124541456146439</v>
+        <v>0.197264444984862</v>
       </c>
       <c r="C98">
-        <v>-0.1726519363827883</v>
+        <v>0.04291115267889618</v>
       </c>
       <c r="D98">
-        <v>-0.1064736816460266</v>
+        <v>-0.01401954836420994</v>
       </c>
       <c r="E98">
-        <v>0.05657102467997629</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06396646388190198</v>
+      </c>
+      <c r="F98">
+        <v>-0.2523431184283149</v>
+      </c>
+      <c r="G98">
+        <v>0.03094649573618688</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007648522355215755</v>
+        <v>0.01045508095858555</v>
       </c>
       <c r="C101">
-        <v>-0.01997346915481692</v>
+        <v>0.0192724481768567</v>
       </c>
       <c r="D101">
-        <v>-0.009086264978201001</v>
+        <v>0.007254636607212317</v>
       </c>
       <c r="E101">
-        <v>-0.008842243023006176</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.008106021014349334</v>
+      </c>
+      <c r="F101">
+        <v>0.01390834269812916</v>
+      </c>
+      <c r="G101">
+        <v>-0.04459349465307752</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01633355658338955</v>
+        <v>0.1187873789653948</v>
       </c>
       <c r="C102">
-        <v>-0.09117888194471414</v>
+        <v>0.08595628505236577</v>
       </c>
       <c r="D102">
-        <v>-0.1232072499060709</v>
+        <v>0.001912352514596127</v>
       </c>
       <c r="E102">
-        <v>0.009472699163182463</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.02879383876104014</v>
+      </c>
+      <c r="F102">
+        <v>0.03517751152398459</v>
+      </c>
+      <c r="G102">
+        <v>0.0004298301650366629</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001536619356035433</v>
+        <v>0.003505348977791471</v>
       </c>
       <c r="C103">
-        <v>-0.01294433334745389</v>
+        <v>0.004827671557368034</v>
       </c>
       <c r="D103">
-        <v>-0.02517667003554866</v>
+        <v>0.0001208088624460762</v>
       </c>
       <c r="E103">
-        <v>-0.01561705083943738</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.001344254930431105</v>
+      </c>
+      <c r="F103">
+        <v>0.009442628244512216</v>
+      </c>
+      <c r="G103">
+        <v>-0.01572078614159597</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9804860661039606</v>
+        <v>0.02808737163230852</v>
       </c>
       <c r="C104">
-        <v>0.1426953407775507</v>
+        <v>-0.03849617070506837</v>
       </c>
       <c r="D104">
-        <v>0.001051082716378862</v>
+        <v>0.9875731862054734</v>
       </c>
       <c r="E104">
-        <v>-0.02467539452714656</v>
+        <v>-0.03789049255075388</v>
+      </c>
+      <c r="F104">
+        <v>0.04021998311415656</v>
+      </c>
+      <c r="G104">
+        <v>0.01322563244843551</v>
       </c>
     </row>
   </sheetData>
